--- a/FALL 19/CSE 101/results.xlsx
+++ b/FALL 19/CSE 101/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -183,12 +183,18 @@
   <si>
     <t>Problem 4</t>
   </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -225,6 +231,18 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,6 +282,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,21 +506,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
-    <col min="3" max="6" width="14.7109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="2"/>
+    <col min="3" max="8" width="14.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,8 +539,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>173011011</v>
       </c>
@@ -536,8 +566,16 @@
         <f t="shared" ref="F2:F48" si="0">C2+D2+E2</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="10">
+        <f>(F2/30)*100</f>
+        <v>90</v>
+      </c>
+      <c r="H2" s="11" t="str">
+        <f>IF(G2&gt;94,"A+",IF(G2&gt;84,"A",IF(G2&gt;79,"A-",IF(G2&gt;74,"B+",IF(G2&gt;69,"B",IF(G2&gt;64,"B-",IF(G2&gt;59,"C+",IF(G2&gt;54,"C",IF(G2&gt;49,"D","F")))))))))</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>181014084</v>
       </c>
@@ -551,8 +589,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:G48" si="1">(F3/30)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <f t="shared" ref="H3:H48" si="2">IF(G3&gt;94,"A+",IF(G3&gt;84,"A",IF(G3&gt;79,"A-",IF(G3&gt;74,"B+",IF(G3&gt;69,"B",IF(G3&gt;64,"B-",IF(G3&gt;59,"C+",IF(G3&gt;54,"C",IF(G3&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>183011124</v>
       </c>
@@ -572,8 +618,16 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="12">
+        <f t="shared" si="1"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="H4" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>183013056</v>
       </c>
@@ -593,8 +647,16 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="H5" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>183013064</v>
       </c>
@@ -608,8 +670,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>183014013</v>
       </c>
@@ -629,8 +699,16 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="12">
+        <f t="shared" si="1"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="H7" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>183014047</v>
       </c>
@@ -650,8 +728,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H8" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>183014061</v>
       </c>
@@ -665,8 +751,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>191011024</v>
       </c>
@@ -686,8 +780,16 @@
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>61.666666666666671</v>
+      </c>
+      <c r="H10" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>191014023</v>
       </c>
@@ -707,8 +809,16 @@
         <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="12">
+        <f t="shared" si="1"/>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>191014032</v>
       </c>
@@ -722,8 +832,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>191014069</v>
       </c>
@@ -743,8 +861,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="12">
+        <f t="shared" si="1"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>192011115</v>
       </c>
@@ -764,8 +890,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H14" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>192014019</v>
       </c>
@@ -785,8 +919,16 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="10">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="H15" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>192014023</v>
       </c>
@@ -800,8 +942,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>192014029</v>
       </c>
@@ -821,8 +971,16 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="12">
+        <f t="shared" si="1"/>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>193011030</v>
       </c>
@@ -836,8 +994,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>193012069</v>
       </c>
@@ -857,8 +1023,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="12">
+        <f t="shared" si="1"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>193014003</v>
       </c>
@@ -878,8 +1052,16 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="12">
+        <f t="shared" si="1"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>193014005</v>
       </c>
@@ -899,8 +1081,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H21" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>193014007</v>
       </c>
@@ -920,8 +1110,16 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="12">
+        <f t="shared" si="1"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="H22" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>193014009</v>
       </c>
@@ -941,8 +1139,16 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="10">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="H23" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>193014010</v>
       </c>
@@ -962,8 +1168,16 @@
         <f t="shared" si="0"/>
         <v>21.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="12">
+        <f t="shared" si="1"/>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="H24" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>193014015</v>
       </c>
@@ -977,8 +1191,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>193014016</v>
       </c>
@@ -992,8 +1214,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>193014019</v>
       </c>
@@ -1013,8 +1243,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H27" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>193014026</v>
       </c>
@@ -1034,8 +1272,16 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="12">
+        <f t="shared" si="1"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="H28" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>193014030</v>
       </c>
@@ -1055,8 +1301,16 @@
         <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="12">
+        <f t="shared" si="1"/>
+        <v>78.333333333333329</v>
+      </c>
+      <c r="H29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>193014032</v>
       </c>
@@ -1070,8 +1324,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>193014033</v>
       </c>
@@ -1091,8 +1353,16 @@
         <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="12">
+        <f t="shared" si="1"/>
+        <v>88.333333333333329</v>
+      </c>
+      <c r="H31" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>193014035</v>
       </c>
@@ -1112,8 +1382,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="12">
+        <f t="shared" si="1"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="H32" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>193014036</v>
       </c>
@@ -1133,8 +1411,16 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="12">
+        <f t="shared" si="1"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="H33" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>193014040</v>
       </c>
@@ -1154,8 +1440,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H34" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>193014042</v>
       </c>
@@ -1175,8 +1469,16 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="10">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="H35" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>193014048</v>
       </c>
@@ -1196,8 +1498,16 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H36" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>193014050</v>
       </c>
@@ -1217,8 +1527,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>193014052</v>
       </c>
@@ -1238,8 +1556,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H38" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>193014053</v>
       </c>
@@ -1259,8 +1585,16 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="12">
+        <f t="shared" si="1"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="H39" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>193014055</v>
       </c>
@@ -1280,8 +1614,16 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="12">
+        <f t="shared" si="1"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="H40" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>193014056</v>
       </c>
@@ -1301,8 +1643,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H41" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>193014060</v>
       </c>
@@ -1322,8 +1672,16 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="12">
+        <f t="shared" si="1"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="H42" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>193014061</v>
       </c>
@@ -1343,8 +1701,16 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="12">
+        <f t="shared" si="1"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="H43" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>193014062</v>
       </c>
@@ -1364,8 +1730,16 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="12">
+        <f t="shared" si="1"/>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="H44" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>193014064</v>
       </c>
@@ -1385,8 +1759,16 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="12">
+        <f t="shared" si="1"/>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="H45" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>193014065</v>
       </c>
@@ -1406,8 +1788,16 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="12">
+        <f t="shared" si="1"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="H46" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>193014067</v>
       </c>
@@ -1427,8 +1817,16 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="10">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="H47" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>193014069</v>
       </c>
@@ -1447,6 +1845,14 @@
       <c r="F48" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+      <c r="G48" s="12">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="H48" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -5269,10 +5675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5280,9 +5686,11 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5304,8 +5712,14 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>173011011</v>
       </c>
@@ -5324,8 +5738,16 @@
         <f>C2+D2+E2+F2</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H2" s="10">
+        <f>(G2/20)*100</f>
+        <v>15</v>
+      </c>
+      <c r="I2" s="11" t="str">
+        <f>IF(H2&gt;94,"A+",IF(H2&gt;84,"A",IF(H2&gt;79,"A-",IF(H2&gt;74,"B+",IF(H2&gt;69,"B",IF(H2&gt;64,"B-",IF(H2&gt;59,"C+",IF(H2&gt;54,"C",IF(H2&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>181014084</v>
       </c>
@@ -5340,8 +5762,16 @@
         <f t="shared" ref="G3:G48" si="0">C3+D3+E3+F3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H48" si="1">(G3/20)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="str">
+        <f t="shared" ref="I3:I48" si="2">IF(H3&gt;94,"A+",IF(H3&gt;84,"A",IF(H3&gt;79,"A-",IF(H3&gt;74,"B+",IF(H3&gt;69,"B",IF(H3&gt;64,"B-",IF(H3&gt;59,"C+",IF(H3&gt;54,"C",IF(H3&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>183011124</v>
       </c>
@@ -5360,8 +5790,16 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H4" s="10">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+      <c r="I4" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>183013056</v>
       </c>
@@ -5380,8 +5818,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H5" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I5" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>183013064</v>
       </c>
@@ -5396,8 +5842,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>183014013</v>
       </c>
@@ -5418,8 +5872,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H7" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I7" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>183014047</v>
       </c>
@@ -5440,8 +5902,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H8" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I8" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>183014061</v>
       </c>
@@ -5456,8 +5926,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>191011024</v>
       </c>
@@ -5478,8 +5956,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H10" s="10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I10" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>191014023</v>
       </c>
@@ -5502,8 +5988,16 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H11" s="10">
+        <f t="shared" si="1"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="I11" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>191014032</v>
       </c>
@@ -5514,8 +6008,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>191014069</v>
       </c>
@@ -5536,8 +6038,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H13" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I13" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>192011115</v>
       </c>
@@ -5556,8 +6066,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H14" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I14" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>192014019</v>
       </c>
@@ -5580,8 +6098,16 @@
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H15" s="10">
+        <f t="shared" si="1"/>
+        <v>57.499999999999993</v>
+      </c>
+      <c r="I15" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>192014023</v>
       </c>
@@ -5596,8 +6122,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>192014029</v>
       </c>
@@ -5620,8 +6154,16 @@
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="I17" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>193011030</v>
       </c>
@@ -5636,8 +6178,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>193012069</v>
       </c>
@@ -5652,8 +6202,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>193014003</v>
       </c>
@@ -5676,8 +6234,16 @@
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H20" s="10">
+        <f t="shared" si="1"/>
+        <v>67.5</v>
+      </c>
+      <c r="I20" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>B-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>193014005</v>
       </c>
@@ -5698,8 +6264,16 @@
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H21" s="10">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="I21" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>193014007</v>
       </c>
@@ -5722,8 +6296,16 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H22" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="I22" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>193014009</v>
       </c>
@@ -5746,8 +6328,16 @@
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H23" s="10">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="I23" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>193014010</v>
       </c>
@@ -5766,8 +6356,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H24" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I24" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>193014015</v>
       </c>
@@ -5782,8 +6380,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H25" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>193014016</v>
       </c>
@@ -5798,8 +6404,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>193014019</v>
       </c>
@@ -5822,8 +6436,16 @@
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>57.499999999999993</v>
+      </c>
+      <c r="I27" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>193014026</v>
       </c>
@@ -5846,8 +6468,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H28" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I28" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>193014030</v>
       </c>
@@ -5868,8 +6498,16 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H29" s="10">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+      <c r="I29" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>193014032</v>
       </c>
@@ -5884,8 +6522,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H30" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>193014033</v>
       </c>
@@ -5908,8 +6554,16 @@
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H31" s="10">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="I31" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>193014035</v>
       </c>
@@ -5930,8 +6584,16 @@
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H32" s="10">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="I32" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>193014036</v>
       </c>
@@ -5952,8 +6614,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H33" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I33" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>193014040</v>
       </c>
@@ -5976,8 +6646,16 @@
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H34" s="10">
+        <f t="shared" si="1"/>
+        <v>82.5</v>
+      </c>
+      <c r="I34" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>193014042</v>
       </c>
@@ -6000,8 +6678,16 @@
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H35" s="10">
+        <f t="shared" si="1"/>
+        <v>57.499999999999993</v>
+      </c>
+      <c r="I35" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>193014048</v>
       </c>
@@ -6020,8 +6706,16 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H36" s="10">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+      <c r="I36" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>193014050</v>
       </c>
@@ -6044,8 +6738,16 @@
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H37" s="10">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+      <c r="I37" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>193014052</v>
       </c>
@@ -6064,8 +6766,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H38" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I38" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>193014053</v>
       </c>
@@ -6088,8 +6798,16 @@
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H39" s="10">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="I39" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>193014055</v>
       </c>
@@ -6112,8 +6830,16 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H40" s="10">
+        <f t="shared" si="1"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="I40" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>193014056</v>
       </c>
@@ -6134,8 +6860,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H41" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I41" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>193014060</v>
       </c>
@@ -6156,8 +6890,16 @@
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H42" s="10">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="I42" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>193014061</v>
       </c>
@@ -6178,8 +6920,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H43" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I43" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>193014062</v>
       </c>
@@ -6203,8 +6953,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H44" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I44" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>193014064</v>
       </c>
@@ -6225,8 +6983,16 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H45" s="10">
+        <f t="shared" si="1"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="I45" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>193014065</v>
       </c>
@@ -6249,8 +7015,16 @@
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H46" s="10">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="I46" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>193014067</v>
       </c>
@@ -6271,8 +7045,16 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H47" s="10">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="I47" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>193014069</v>
       </c>
@@ -6293,8 +7075,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="H48" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I48" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>